--- a/HistRatios.xlsx
+++ b/HistRatios.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="306" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="306" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="pp" sheetId="1" state="visible" r:id="rId2"/>
@@ -245,12 +245,12 @@
   </sheetPr>
   <dimension ref="A1:AA58"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="N40" activePane="bottomRight" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E41" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="N1" activeCellId="0" sqref="N1"/>
-      <selection pane="bottomLeft" activeCell="A40" activeCellId="0" sqref="A40"/>
-      <selection pane="bottomRight" activeCell="S59" activeCellId="0" sqref="S59"/>
+      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A41" activeCellId="0" sqref="A41"/>
+      <selection pane="bottomRight" activeCell="B45" activeCellId="1" sqref="W43:W58 B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -4026,10 +4026,10 @@
       </c>
       <c r="V45" s="3" t="n">
         <f aca="false">(dw!V45*100)/dw!S45</f>
-        <v>13.2798383518683</v>
+        <v>12.2773977166939</v>
       </c>
       <c r="W45" s="3" t="n">
-        <v>0.839104948168606</v>
+        <v>0.339104948168606</v>
       </c>
       <c r="X45" s="3" t="n">
         <v>0.398673461425525</v>
@@ -5154,12 +5154,12 @@
   </sheetPr>
   <dimension ref="A1:AA58"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="N38" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="N1" activeCellId="0" sqref="N1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T54" activeCellId="0" sqref="T54"/>
+      <selection pane="bottomLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
+      <selection pane="bottomRight" activeCell="W43" activeCellId="0" sqref="W43:W58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -8920,7 +8920,7 @@
         <v>0.268100569298955</v>
       </c>
       <c r="C45" s="3" t="n">
-        <v>0.0514072227645998</v>
+        <v>0.4214072227646</v>
       </c>
       <c r="D45" s="3" t="n">
         <v>0.965141669560864</v>
@@ -8969,7 +8969,7 @@
       </c>
       <c r="S45" s="3" t="n">
         <f aca="false">SUM(B45:R45)</f>
-        <v>4.53157722839748</v>
+        <v>4.90157722839748</v>
       </c>
       <c r="T45" s="3" t="n">
         <v>1.37820225694989</v>
@@ -8982,7 +8982,7 @@
         <v>0.601786130721259</v>
       </c>
       <c r="W45" s="3" t="n">
-        <v>0.839104948168606</v>
+        <v>0.388828918809728</v>
       </c>
       <c r="X45" s="3" t="n">
         <v>0.398673461425525</v>
@@ -9407,7 +9407,7 @@
         <v>2.80288001568757</v>
       </c>
       <c r="W50" s="3" t="n">
-        <v>0.77294712797797</v>
+        <v>0.37294712797797</v>
       </c>
       <c r="X50" s="3" t="n">
         <v>0.088965374788931</v>

--- a/HistRatios.xlsx
+++ b/HistRatios.xlsx
@@ -10267,7 +10267,7 @@
   <dimension ref="A1:V16"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
+      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -10354,7 +10354,7 @@
         <v>72.996</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>82.1998992464422</v>
+        <v>52.1998992464422</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>31.8864</v>
@@ -10363,34 +10363,34 @@
         <v>15.1084270391904</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>10.731</v>
+        <v>35.731</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>5.28171</v>
+        <v>2.28171</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>19.824</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>1.9215</v>
+        <v>0.9215</v>
       </c>
       <c r="L2" s="0" t="n">
-        <v>0</v>
+        <v>0.2418518</v>
       </c>
       <c r="M2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="N2" s="0" t="n">
-        <v>69.8835038207594</v>
+        <v>49.8835038207594</v>
       </c>
       <c r="O2" s="0" t="n">
         <v>10.54599</v>
       </c>
       <c r="P2" s="0" t="n">
-        <v>31.7211699553413</v>
+        <v>11.7211699553413</v>
       </c>
       <c r="Q2" s="0" t="n">
         <v>0</v>
@@ -10399,16 +10399,16 @@
         <v>0</v>
       </c>
       <c r="S2" s="0" t="n">
-        <v>69.7972712521168</v>
+        <v>70.6980757768628</v>
       </c>
       <c r="T2" s="0" t="n">
-        <v>7.60729465781244</v>
+        <v>13.1818968780379</v>
       </c>
       <c r="U2" s="0" t="n">
-        <v>8.51573048958549</v>
+        <v>4.97496777703519</v>
       </c>
       <c r="V2" s="0" t="n">
-        <v>14.0797036004852</v>
+        <v>11.1450595680641</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10422,7 +10422,7 @@
         <v>53.4313562019102</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>54.6621315992845</v>
+        <v>44.6621315992845</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>33.8697194960722</v>
@@ -10437,16 +10437,16 @@
         <v>0</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>13.1282794671</v>
+        <v>3.1282794671</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>30.1079056605258</v>
+        <v>10.1079056605258</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>18.9768963368622</v>
+        <v>1.9768963368622</v>
       </c>
       <c r="L3" s="0" t="n">
-        <v>0.0206</v>
+        <v>0.0606</v>
       </c>
       <c r="M3" s="0" t="n">
         <v>0.013051</v>
@@ -10455,10 +10455,10 @@
         <v>48.5571727788471</v>
       </c>
       <c r="O3" s="0" t="n">
-        <v>28.3836</v>
+        <v>25.3836</v>
       </c>
       <c r="P3" s="0" t="n">
-        <v>41.2198783021435</v>
+        <v>36.2198783021435</v>
       </c>
       <c r="Q3" s="0" t="n">
         <v>0</v>
@@ -10467,16 +10467,16 @@
         <v>0</v>
       </c>
       <c r="S3" s="0" t="n">
-        <v>64.1475946345505</v>
+        <v>70.3083940191252</v>
       </c>
       <c r="T3" s="0" t="n">
-        <v>15.4318960017174</v>
+        <v>8.2475068302491</v>
       </c>
       <c r="U3" s="0" t="n">
-        <v>12.0288646636098</v>
+        <v>11.9918599224996</v>
       </c>
       <c r="V3" s="0" t="n">
-        <v>8.39164470012242</v>
+        <v>9.45223922812621</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10490,7 +10490,7 @@
         <v>86.7367521454791</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>116.039511</v>
+        <v>76.039511</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>42.3585684302107</v>
@@ -10499,22 +10499,22 @@
         <v>0</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>28.24185</v>
+        <v>30.24185</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>10.5</v>
+        <v>5.5</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>18.3928985090305</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>28.8137292257039</v>
+        <v>3.8137292257039</v>
       </c>
       <c r="L4" s="0" t="n">
-        <v>0.0172</v>
+        <v>0.0472</v>
       </c>
       <c r="M4" s="0" t="n">
         <v>0.0120651</v>
@@ -10526,7 +10526,7 @@
         <v>14.7408820591367</v>
       </c>
       <c r="P4" s="0" t="n">
-        <v>51.0967394893342</v>
+        <v>27.0967394893342</v>
       </c>
       <c r="Q4" s="0" t="n">
         <v>2.11174314021521</v>
@@ -10535,16 +10535,16 @@
         <v>0.228333257845765</v>
       </c>
       <c r="S4" s="0" t="n">
-        <v>64.3784222661309</v>
+        <v>67.8617998142836</v>
       </c>
       <c r="T4" s="0" t="n">
-        <v>13.6985648408825</v>
+        <v>10.9129196010073</v>
       </c>
       <c r="U4" s="0" t="n">
-        <v>10.2771575712296</v>
+        <v>8.0191581486404</v>
       </c>
       <c r="V4" s="0" t="n">
-        <v>11.6458553217568</v>
+        <v>13.5894471224565</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10552,13 +10552,13 @@
         <v>33</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>728.211155550252</v>
+        <v>708.211155550252</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>184.573472866375</v>
+        <v>144.573472866375</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>70.3533201</v>
+        <v>110.3533201</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>111.225954268053</v>
@@ -10567,22 +10567,22 @@
         <v>0</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>42.7347395111069</v>
+        <v>62.7347395111069</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>1.42859832208645</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>11.6003779952662</v>
+        <v>2.6003779952662</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>10.6916881206067</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>12.4501990836811</v>
+        <v>2.4501990836811</v>
       </c>
       <c r="L5" s="0" t="n">
-        <v>0.011</v>
+        <v>0.031</v>
       </c>
       <c r="M5" s="0" t="n">
         <v>0.00812</v>
@@ -10591,10 +10591,10 @@
         <v>119.083605542596</v>
       </c>
       <c r="O5" s="0" t="n">
-        <v>39.785886</v>
+        <v>30.785886</v>
       </c>
       <c r="P5" s="0" t="n">
-        <v>31.066757102856</v>
+        <v>21.066757102856</v>
       </c>
       <c r="Q5" s="0" t="n">
         <v>0</v>
@@ -10603,16 +10603,16 @@
         <v>1.63826622071203</v>
       </c>
       <c r="S5" s="0" t="n">
-        <v>80.1823421724456</v>
+        <v>80.9689919061888</v>
       </c>
       <c r="T5" s="0" t="n">
-        <v>5.78129089016539</v>
+        <v>6.02500104052577</v>
       </c>
       <c r="U5" s="0" t="n">
-        <v>5.31129625253885</v>
+        <v>4.03132029366281</v>
       </c>
       <c r="V5" s="0" t="n">
-        <v>8.72507068485031</v>
+        <v>8.97468675962269</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10623,7 +10623,7 @@
         <v>677.9871</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>192.276</v>
+        <v>152.276</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>86.478</v>
@@ -10635,7 +10635,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>25.5801</v>
+        <v>45.5801</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>0</v>
@@ -10644,13 +10644,13 @@
         <v>6.58581</v>
       </c>
       <c r="J6" s="0" t="n">
-        <v>50.1039</v>
+        <v>30.1039</v>
       </c>
       <c r="K6" s="0" t="n">
         <v>8.7255</v>
       </c>
       <c r="L6" s="0" t="n">
-        <v>0.0106</v>
+        <v>0.0806</v>
       </c>
       <c r="M6" s="0" t="n">
         <v>0.010945</v>
@@ -10671,16 +10671,16 @@
         <v>0</v>
       </c>
       <c r="S6" s="0" t="n">
-        <v>85.1817283040307</v>
+        <v>84.6451231167555</v>
       </c>
       <c r="T6" s="0" t="n">
-        <v>7.85095799367584</v>
+        <v>8.13910615319505</v>
       </c>
       <c r="U6" s="0" t="n">
-        <v>3.07455133357991</v>
+        <v>3.18419099079425</v>
       </c>
       <c r="V6" s="0" t="n">
-        <v>3.89276236871359</v>
+        <v>4.03157973925516</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10688,7 +10688,7 @@
         <v>33</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>640.83264</v>
+        <v>600.83264</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>177.69381</v>
@@ -10697,19 +10697,19 @@
         <v>76.00824</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>24.18234</v>
+        <v>44.18234</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>15.994461</v>
+        <v>30.994461</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>8.74251</v>
+        <v>4.74251</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>23.32701</v>
@@ -10718,7 +10718,7 @@
         <v>6.6171</v>
       </c>
       <c r="L7" s="0" t="n">
-        <v>0.204</v>
+        <v>0.0604</v>
       </c>
       <c r="M7" s="0" t="n">
         <v>0.041</v>
@@ -10739,16 +10739,16 @@
         <v>0</v>
       </c>
       <c r="S7" s="0" t="n">
-        <v>89.2278972680211</v>
+        <v>88.0463946154381</v>
       </c>
       <c r="T7" s="0" t="n">
-        <v>5.31075153572841</v>
+        <v>6.4446428492721</v>
       </c>
       <c r="U7" s="0" t="n">
-        <v>2.95268257340696</v>
+        <v>2.9784236704407</v>
       </c>
       <c r="V7" s="0" t="n">
-        <v>2.50866862284352</v>
+        <v>2.53053886484911</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10759,19 +10759,19 @@
         <v>137.45634</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>84.945</v>
+        <v>64.945</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>17.01</v>
+        <v>27.01</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>7.26264</v>
+        <v>17.26264</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>9.5449074</v>
+        <v>24.5</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>0</v>
@@ -10783,10 +10783,10 @@
         <v>4.2</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>4.5381</v>
+        <v>0.5381</v>
       </c>
       <c r="L8" s="0" t="n">
-        <v>0</v>
+        <v>0.052</v>
       </c>
       <c r="M8" s="0" t="n">
         <v>0</v>
@@ -10795,7 +10795,7 @@
         <v>28.308</v>
       </c>
       <c r="O8" s="0" t="n">
-        <v>14.17815</v>
+        <v>12.17815</v>
       </c>
       <c r="P8" s="0" t="n">
         <v>8.0808</v>
@@ -10807,16 +10807,16 @@
         <v>0</v>
       </c>
       <c r="S8" s="0" t="n">
-        <v>77.6910413883285</v>
+        <v>75.5478817517552</v>
       </c>
       <c r="T8" s="0" t="n">
-        <v>6.38267808005019</v>
+        <v>9.57770710993419</v>
       </c>
       <c r="U8" s="0" t="n">
-        <v>7.01055298054029</v>
+        <v>6.20462992900476</v>
       </c>
       <c r="V8" s="0" t="n">
-        <v>8.915727551081</v>
+        <v>8.66978120930585</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10830,43 +10830,43 @@
         <v>195.8481</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>32.571</v>
+        <v>42.571</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>39.57471</v>
+        <v>69.57471</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>17.1801</v>
+        <v>27.1801</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>5.5152846</v>
+        <v>3.5152846</v>
       </c>
       <c r="J9" s="0" t="n">
-        <v>26.901</v>
+        <v>16.901</v>
       </c>
       <c r="K9" s="0" t="n">
         <v>8.7279276</v>
       </c>
       <c r="L9" s="0" t="n">
-        <v>0</v>
+        <v>0.085</v>
       </c>
       <c r="M9" s="0" t="n">
         <v>0</v>
       </c>
       <c r="N9" s="0" t="n">
-        <v>162.3741</v>
+        <v>122.3741</v>
       </c>
       <c r="O9" s="0" t="n">
         <v>17.18871</v>
       </c>
       <c r="P9" s="0" t="n">
-        <v>10.81815</v>
+        <v>7.81815</v>
       </c>
       <c r="Q9" s="0" t="n">
         <v>0</v>
@@ -10875,16 +10875,16 @@
         <v>0.11445</v>
       </c>
       <c r="S9" s="0" t="n">
-        <v>79.4388740188889</v>
+        <v>83.0816949167224</v>
       </c>
       <c r="T9" s="0" t="n">
-        <v>4.81960802906906</v>
+        <v>4.68037200433927</v>
       </c>
       <c r="U9" s="0" t="n">
-        <v>2.32379408091743</v>
+        <v>2.08435578188681</v>
       </c>
       <c r="V9" s="0" t="n">
-        <v>13.4177238711246</v>
+        <v>10.1535772970516</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10898,7 +10898,7 @@
         <v>24.2445</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>4.5171</v>
+        <v>9.5171</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>11.85429</v>
@@ -10907,7 +10907,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>6.7899993</v>
+        <v>7.7899993</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>1.764</v>
       </c>
       <c r="L10" s="0" t="n">
-        <v>0.0098</v>
+        <v>0.0398</v>
       </c>
       <c r="M10" s="0" t="n">
         <v>0</v>
@@ -10943,16 +10943,16 @@
         <v>0</v>
       </c>
       <c r="S10" s="0" t="n">
-        <v>73.2431665625623</v>
+        <v>73.6059744932587</v>
       </c>
       <c r="T10" s="0" t="n">
-        <v>7.08111973307727</v>
+        <v>7.46650185991759</v>
       </c>
       <c r="U10" s="0" t="n">
-        <v>7.52596942555336</v>
+        <v>7.23978638883454</v>
       </c>
       <c r="V10" s="0" t="n">
-        <v>12.1497442788071</v>
+        <v>11.6877372579892</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10966,7 +10966,7 @@
         <v>22.64968251</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>2.005164</v>
+        <v>10.005164</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>10.8234</v>
@@ -10975,7 +10975,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>3.8808</v>
+        <v>7.8808</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>0.000573972</v>
@@ -10990,7 +10990,7 @@
         <v>1.32628986</v>
       </c>
       <c r="L11" s="0" t="n">
-        <v>0</v>
+        <v>0.0411</v>
       </c>
       <c r="M11" s="0" t="n">
         <v>0</v>
@@ -11002,7 +11002,7 @@
         <v>3.1878</v>
       </c>
       <c r="P11" s="0" t="n">
-        <v>4.58871</v>
+        <v>2.58871</v>
       </c>
       <c r="Q11" s="0" t="n">
         <v>0</v>
@@ -11011,16 +11011,16 @@
         <v>0</v>
       </c>
       <c r="S11" s="0" t="n">
-        <v>74.9661407713077</v>
+        <v>75.3144919694541</v>
       </c>
       <c r="T11" s="0" t="n">
-        <v>6.97413504427061</v>
+        <v>9.43676867948572</v>
       </c>
       <c r="U11" s="0" t="n">
-        <v>6.19053462685081</v>
+        <v>4.25806457197434</v>
       </c>
       <c r="V11" s="0" t="n">
-        <v>11.8691895575709</v>
+        <v>10.9906747790859</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11028,16 +11028,16 @@
         <v>28</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>0.0171590996279466</v>
+        <v>0.0161590996279466</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>0.0225454</v>
+        <v>0.0425454</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>0.0214055936673492</v>
+        <v>0.0204055936673492</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>0.0219897733330063</v>
+        <v>0.0419897733330063</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>0.000148028235741426</v>
@@ -11052,7 +11052,7 @@
         <v>0.144596952380176</v>
       </c>
       <c r="J12" s="0" t="n">
-        <v>0.121518</v>
+        <v>0.221518</v>
       </c>
       <c r="K12" s="0" t="n">
         <v>0.278149011765184</v>
@@ -11079,16 +11079,16 @@
         <v>0.0127642936889896</v>
       </c>
       <c r="S12" s="0" t="n">
-        <v>5.14459364252993</v>
+        <v>6.87160650947841</v>
       </c>
       <c r="T12" s="0" t="n">
-        <v>64.0081124514748</v>
+        <v>64.8390199587196</v>
       </c>
       <c r="U12" s="0" t="n">
-        <v>7.40792992882534</v>
+        <v>7.05133247144246</v>
       </c>
       <c r="V12" s="0" t="n">
-        <v>23.4393639771696</v>
+        <v>21.4957242252342</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11096,31 +11096,31 @@
         <v>28</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>0.00886123855143999</v>
+        <v>0.00986123855143999</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>0.01465</v>
+        <v>0.02465</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>0.0402748806395993</v>
+        <v>0.0202748806395993</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>0.0158431764306356</v>
+        <v>0.0558431764306356</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>0.000122556379479573</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>0.31558335149509</v>
+        <v>0.61558335149509</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>0.00896872499187859</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>0.136049113700733</v>
+        <v>0.236049113700733</v>
       </c>
       <c r="J13" s="0" t="n">
-        <v>0.213816028261297</v>
+        <v>0.313816028261297</v>
       </c>
       <c r="K13" s="0" t="n">
         <v>0.204757553434635</v>
@@ -11132,7 +11132,7 @@
         <v>0.00405012004057871</v>
       </c>
       <c r="N13" s="0" t="n">
-        <v>0.853576419813136</v>
+        <v>0.553576419813136</v>
       </c>
       <c r="O13" s="0" t="n">
         <v>0.0254</v>
@@ -11147,16 +11147,16 @@
         <v>0.00943652517820309</v>
       </c>
       <c r="S13" s="0" t="n">
-        <v>4.14010589451894</v>
+        <v>5.12425965848062</v>
       </c>
       <c r="T13" s="0" t="n">
-        <v>46.1288744390688</v>
+        <v>64.4323380367871</v>
       </c>
       <c r="U13" s="0" t="n">
-        <v>5.41986351872098</v>
+        <v>4.97697969327783</v>
       </c>
       <c r="V13" s="0" t="n">
-        <v>44.3111561476914</v>
+        <v>25.6128386539759</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11164,16 +11164,16 @@
         <v>28</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>0.0183139492398088</v>
+        <v>0.0193139492398088</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>0.0110662777153696</v>
+        <v>0.0410662777153696</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>0.0448642204816672</v>
+        <v>0.0418642204816672</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>0.0251</v>
+        <v>0.0451</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>0.000113164068120126</v>
@@ -11188,10 +11188,10 @@
         <v>0.242311324047753</v>
       </c>
       <c r="J14" s="0" t="n">
-        <v>0.148518</v>
+        <v>0.248518</v>
       </c>
       <c r="K14" s="0" t="n">
-        <v>0.151762578181916</v>
+        <v>0.191762578181916</v>
       </c>
       <c r="L14" s="0" t="n">
         <v>0.00897836129779537</v>
@@ -11200,13 +11200,13 @@
         <v>0.00539280328356707</v>
       </c>
       <c r="N14" s="0" t="n">
-        <v>0.548277775633557</v>
+        <v>0.448277775633557</v>
       </c>
       <c r="O14" s="0" t="n">
         <v>0.0251518</v>
       </c>
       <c r="P14" s="0" t="n">
-        <v>0.129662654552555</v>
+        <v>0.089662654552555</v>
       </c>
       <c r="Q14" s="0" t="n">
         <v>0.00425666677624134</v>
@@ -11215,16 +11215,16 @@
         <v>0.00733573963726547</v>
       </c>
       <c r="S14" s="0" t="n">
-        <v>5.3152646658995</v>
+        <v>7.66209246300504</v>
       </c>
       <c r="T14" s="0" t="n">
-        <v>56.7176795348532</v>
+        <v>62.6977160021973</v>
       </c>
       <c r="U14" s="0" t="n">
-        <v>8.66571381218885</v>
+        <v>6.56826763159372</v>
       </c>
       <c r="V14" s="0" t="n">
-        <v>29.3013419870586</v>
+        <v>23.293105937084</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11232,16 +11232,16 @@
         <v>28</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>0.0274536273195603</v>
+        <v>0.0174536273195603</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>0.0128601332957909</v>
+        <v>0.0828601332957909</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>0.0568861284946936</v>
+        <v>0.0268861284946936</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>0.0238861025617681</v>
+        <v>0.0538861025617681</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>9.83015142466052E-005</v>
@@ -11253,7 +11253,7 @@
         <v>0.0123069759987544</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>0.326963039830449</v>
+        <v>0.376963039830449</v>
       </c>
       <c r="J15" s="0" t="n">
         <v>0.188545</v>
@@ -11268,13 +11268,13 @@
         <v>0.00845</v>
       </c>
       <c r="N15" s="0" t="n">
-        <v>0.65119220756536</v>
+        <v>0.35119220756536</v>
       </c>
       <c r="O15" s="0" t="n">
         <v>0.037511</v>
       </c>
       <c r="P15" s="0" t="n">
-        <v>0.0891890444637866</v>
+        <v>0.0691890444637866</v>
       </c>
       <c r="Q15" s="0" t="n">
         <v>0.00471985429440942</v>
@@ -11283,16 +11283,16 @@
         <v>0.0148382899227895</v>
       </c>
       <c r="S15" s="0" t="n">
-        <v>5.74362968872662</v>
+        <v>9.49456722803815</v>
       </c>
       <c r="T15" s="0" t="n">
-        <v>56.6842513822564</v>
+        <v>65.733021033708</v>
       </c>
       <c r="U15" s="0" t="n">
-        <v>6.70832628637362</v>
+        <v>6.61628466486838</v>
       </c>
       <c r="V15" s="0" t="n">
-        <v>30.8637926426432</v>
+        <v>18.4034607308278</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11303,19 +11303,19 @@
         <v>0.0203055618388385</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>0.011659605690401</v>
+        <v>0.071659605690401</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0.0485934589181467</v>
+        <v>0.025934589181467</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>0.0173416595348547</v>
+        <v>0.0373416595348547</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>0.000115216144716868</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>0.334665832506876</v>
+        <v>0.534665832506876</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>0.0158290529846551</v>
@@ -11327,7 +11327,7 @@
         <v>0.235272133234748</v>
       </c>
       <c r="K16" s="0" t="n">
-        <v>0.203110750515232</v>
+        <v>0.403110750515232</v>
       </c>
       <c r="L16" s="0" t="n">
         <v>0.00863747779686378</v>
@@ -11336,7 +11336,7 @@
         <v>0.00603322067078109</v>
       </c>
       <c r="N16" s="0" t="n">
-        <v>0.6284854</v>
+        <v>0.4284854</v>
       </c>
       <c r="O16" s="0" t="n">
         <v>0.036518</v>
@@ -11351,16 +11351,16 @@
         <v>0.00841660513921266</v>
       </c>
       <c r="S16" s="0" t="n">
-        <v>5.02823122686773</v>
+        <v>7.02142654590977</v>
       </c>
       <c r="T16" s="0" t="n">
-        <v>51.1903499512587</v>
+        <v>63.4463240176412</v>
       </c>
       <c r="U16" s="0" t="n">
-        <v>11.5398871729601</v>
+        <v>10.2976429745875</v>
       </c>
       <c r="V16" s="0" t="n">
-        <v>32.2415316489135</v>
+        <v>19.3656280765458</v>
       </c>
     </row>
   </sheetData>

--- a/HistRatios.xlsx
+++ b/HistRatios.xlsx
@@ -271,7 +271,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="L1" activeCellId="0" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R1" activeCellId="0" sqref="R1"/>
+      <selection pane="bottomRight" activeCell="R1" activeCellId="1" sqref="S16:V16 R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5119,7 +5119,7 @@
   <dimension ref="A1:AA58"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+      <selection pane="topLeft" activeCell="D11" activeCellId="1" sqref="S16:V16 D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -9960,7 +9960,7 @@
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I14" activeCellId="0" sqref="I14"/>
+      <selection pane="topLeft" activeCell="I14" activeCellId="1" sqref="S16:V16 I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -10266,8 +10266,8 @@
   </sheetPr>
   <dimension ref="A1:V16"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S16" activeCellId="0" sqref="S16:V16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -10538,7 +10538,7 @@
         <v>67.8617998142836</v>
       </c>
       <c r="T4" s="0" t="n">
-        <v>10.9129196010073</v>
+        <v>10.5295949146195</v>
       </c>
       <c r="U4" s="0" t="n">
         <v>8.0191581486404</v>
@@ -11082,7 +11082,7 @@
         <v>6.87160650947841</v>
       </c>
       <c r="T12" s="0" t="n">
-        <v>64.8390199587196</v>
+        <v>64.581336793845</v>
       </c>
       <c r="U12" s="0" t="n">
         <v>7.05133247144246</v>
@@ -11150,7 +11150,7 @@
         <v>5.12425965848062</v>
       </c>
       <c r="T13" s="0" t="n">
-        <v>64.4323380367871</v>
+        <v>64.2859219942657</v>
       </c>
       <c r="U13" s="0" t="n">
         <v>4.97697969327783</v>
@@ -11218,7 +11218,7 @@
         <v>7.66209246300504</v>
       </c>
       <c r="T14" s="0" t="n">
-        <v>62.6977160021973</v>
+        <v>62.4765339683172</v>
       </c>
       <c r="U14" s="0" t="n">
         <v>6.56826763159372</v>
@@ -11286,7 +11286,7 @@
         <v>9.49456722803815</v>
       </c>
       <c r="T15" s="0" t="n">
-        <v>65.733021033708</v>
+        <v>65.4856873762657</v>
       </c>
       <c r="U15" s="0" t="n">
         <v>6.61628466486838</v>
@@ -11354,13 +11354,13 @@
         <v>7.02142654590977</v>
       </c>
       <c r="T16" s="0" t="n">
-        <v>63.4463240176412</v>
+        <v>63.315302402957</v>
       </c>
       <c r="U16" s="0" t="n">
         <v>10.2976429745875</v>
       </c>
       <c r="V16" s="0" t="n">
-        <v>19.3656280765458</v>
+        <v>19.3656280765457</v>
       </c>
     </row>
   </sheetData>

--- a/HistRatios.xlsx
+++ b/HistRatios.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="306" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="306" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="pp" sheetId="1" state="visible" r:id="rId2"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="42">
   <si>
     <t>Site</t>
   </si>
@@ -132,6 +132,42 @@
     <t>N</t>
   </si>
   <si>
+    <r>
+      <t>β</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>-Sitosterol</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>γ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>-Sitosterol</t>
+    </r>
+  </si>
+  <si>
+    <t>Dihydrobrassicasterol</t>
+  </si>
+  <si>
+    <t>Dihydrocholesterol</t>
+  </si>
+  <si>
     <t>Human</t>
   </si>
   <si>
@@ -168,7 +204,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.00"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -194,6 +230,13 @@
     <font>
       <sz val="9"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="DejaVu Sans"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -240,7 +283,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -255,6 +298,10 @@
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -5136,8 +5183,8 @@
   </sheetPr>
   <dimension ref="A1:AA58"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AA58" activeCellId="0" sqref="AA58"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5145,7 +5192,7 @@
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.1417004048583"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -5164,11 +5211,11 @@
       <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>7</v>
+      <c r="G1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="I1" s="0" t="s">
         <v>8</v>
@@ -5180,7 +5227,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="M1" s="0" t="s">
         <v>12</v>
@@ -5192,7 +5239,7 @@
         <v>15</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="Q1" s="0" t="s">
         <v>13</v>
@@ -5311,7 +5358,7 @@
         <v>0.146799429743044</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>27</v>
       </c>
@@ -9978,7 +10025,7 @@
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I14" activeCellId="0" sqref="I14"/>
+      <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9986,65 +10033,65 @@
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.5708502024292"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="4" t="s">
+      <c r="L1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>3432</v>
@@ -10100,7 +10147,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>636</v>
@@ -10156,7 +10203,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>18000</v>
@@ -10212,7 +10259,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>3100</v>
@@ -10285,7 +10332,7 @@
   <dimension ref="A1:AA16"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
+      <selection pane="topLeft" activeCell="R18" activeCellId="0" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10293,7 +10340,7 @@
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.1417004048583"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -10328,7 +10375,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="M1" s="0" t="s">
         <v>12</v>
@@ -10378,7 +10425,7 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>144.242551759921</v>
@@ -10443,25 +10490,25 @@
       <c r="V2" s="0" t="n">
         <v>11.1450595680641</v>
       </c>
-      <c r="W2" s="5" t="n">
+      <c r="W2" s="6" t="n">
         <v>0.663982293158211</v>
       </c>
-      <c r="X2" s="5" t="n">
+      <c r="X2" s="6" t="n">
         <v>0.842848102344157</v>
       </c>
-      <c r="Y2" s="5" t="n">
+      <c r="Y2" s="6" t="n">
         <v>0.734273834504583</v>
       </c>
-      <c r="Z2" s="5" t="n">
+      <c r="Z2" s="6" t="n">
         <v>0.406353173983328</v>
       </c>
-      <c r="AA2" s="5" t="n">
+      <c r="AA2" s="6" t="n">
         <v>0.17451726521623</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>229.218598811834</v>
@@ -10526,25 +10573,25 @@
       <c r="V3" s="0" t="n">
         <v>9.45223922812621</v>
       </c>
-      <c r="W3" s="5" t="n">
+      <c r="W3" s="6" t="n">
         <v>0.810962799554268</v>
       </c>
-      <c r="X3" s="5" t="n">
+      <c r="X3" s="6" t="n">
         <v>0.895010982738736</v>
       </c>
-      <c r="Y3" s="5" t="n">
+      <c r="Y3" s="6" t="n">
         <v>0.836928536256484</v>
       </c>
-      <c r="Z3" s="5" t="n">
+      <c r="Z3" s="6" t="n">
         <v>0.37747688050659</v>
       </c>
-      <c r="AA3" s="5" t="n">
+      <c r="AA3" s="6" t="n">
         <v>0.34329638501238</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>168.717141254117</v>
@@ -10609,25 +10656,25 @@
       <c r="V4" s="0" t="n">
         <v>13.5894471224565</v>
       </c>
-      <c r="W4" s="5" t="n">
+      <c r="W4" s="6" t="n">
         <v>0.660460245912947</v>
       </c>
-      <c r="X4" s="5" t="n">
+      <c r="X4" s="6" t="n">
         <v>0.865679199215252</v>
       </c>
-      <c r="Y4" s="5" t="n">
+      <c r="Y4" s="6" t="n">
         <v>0.689326070201955</v>
       </c>
-      <c r="Z4" s="5" t="n">
+      <c r="Z4" s="6" t="n">
         <v>0.284545189442954</v>
       </c>
-      <c r="AA4" s="5" t="n">
+      <c r="AA4" s="6" t="n">
         <v>0.164508839807129</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>708.211155550252</v>
@@ -10692,25 +10739,25 @@
       <c r="V5" s="0" t="n">
         <v>8.97468675962269</v>
       </c>
-      <c r="W5" s="5" t="n">
+      <c r="W5" s="6" t="n">
         <v>0.830468950718769</v>
       </c>
-      <c r="X5" s="5" t="n">
+      <c r="X5" s="6" t="n">
         <v>0.930742332470977</v>
       </c>
-      <c r="Y5" s="5" t="n">
+      <c r="Y5" s="6" t="n">
         <v>0.865186771008677</v>
       </c>
-      <c r="Z5" s="5" t="n">
+      <c r="Z5" s="6" t="n">
         <v>0.36244406258906</v>
       </c>
-      <c r="AA5" s="5" t="n">
+      <c r="AA5" s="6" t="n">
         <v>0.205417965211752</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>677.9871</v>
@@ -10775,25 +10822,25 @@
       <c r="V6" s="0" t="n">
         <v>4.03157973925516</v>
       </c>
-      <c r="W6" s="5" t="n">
+      <c r="W6" s="6" t="n">
         <v>0.816593077543733</v>
       </c>
-      <c r="X6" s="5" t="n">
+      <c r="X6" s="6" t="n">
         <v>0.912279207175233</v>
       </c>
-      <c r="Y6" s="5" t="n">
+      <c r="Y6" s="6" t="n">
         <v>0.886877765904552</v>
       </c>
-      <c r="Z6" s="5" t="n">
+      <c r="Z6" s="6" t="n">
         <v>0.345151868760795</v>
       </c>
-      <c r="AA6" s="5" t="n">
+      <c r="AA6" s="6" t="n">
         <v>0.354203825906295</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>600.83264</v>
@@ -10858,25 +10905,25 @@
       <c r="V7" s="0" t="n">
         <v>2.53053886484911</v>
       </c>
-      <c r="W7" s="5" t="n">
+      <c r="W7" s="6" t="n">
         <v>0.7717562325596</v>
       </c>
-      <c r="X7" s="5" t="n">
+      <c r="X7" s="6" t="n">
         <v>0.931796252616244</v>
       </c>
-      <c r="Y7" s="5" t="n">
+      <c r="Y7" s="6" t="n">
         <v>0.887701463895029</v>
       </c>
-      <c r="Z7" s="5" t="n">
+      <c r="Z7" s="6" t="n">
         <v>0.28966054791458</v>
       </c>
-      <c r="AA7" s="5" t="n">
+      <c r="AA7" s="6" t="n">
         <v>0.447389702578848</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>137.45634</v>
@@ -10941,25 +10988,25 @@
       <c r="V8" s="0" t="n">
         <v>8.66978120930585</v>
       </c>
-      <c r="W8" s="5" t="n">
+      <c r="W8" s="6" t="n">
         <v>0.67912761842387</v>
       </c>
-      <c r="X8" s="5" t="n">
+      <c r="X8" s="6" t="n">
         <v>0.887487332093574</v>
       </c>
-      <c r="Y8" s="5" t="n">
+      <c r="Y8" s="6" t="n">
         <v>0.835771866754012</v>
       </c>
-      <c r="Z8" s="5" t="n">
+      <c r="Z8" s="6" t="n">
         <v>0.475635798874005</v>
       </c>
-      <c r="AA8" s="5" t="n">
+      <c r="AA8" s="6" t="n">
         <v>0.300797927192386</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>693.33285</v>
@@ -11024,25 +11071,25 @@
       <c r="V9" s="0" t="n">
         <v>10.1535772970516</v>
       </c>
-      <c r="W9" s="5" t="n">
+      <c r="W9" s="6" t="n">
         <v>0.779743256982732</v>
       </c>
-      <c r="X9" s="5" t="n">
+      <c r="X9" s="6" t="n">
         <v>0.946669760996524</v>
       </c>
-      <c r="Y9" s="5" t="n">
+      <c r="Y9" s="6" t="n">
         <v>0.942151410133267</v>
       </c>
-      <c r="Z9" s="5" t="n">
+      <c r="Z9" s="6" t="n">
         <v>0.38967270767056</v>
       </c>
-      <c r="AA9" s="5" t="n">
+      <c r="AA9" s="6" t="n">
         <v>0.123161105741565</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>71.29479</v>
@@ -11107,25 +11154,25 @@
       <c r="V10" s="0" t="n">
         <v>11.6877372579892</v>
       </c>
-      <c r="W10" s="5" t="n">
+      <c r="W10" s="6" t="n">
         <v>0.74623529230749</v>
       </c>
-      <c r="X10" s="5" t="n">
+      <c r="X10" s="6" t="n">
         <v>0.907903369974895</v>
       </c>
-      <c r="Y10" s="5" t="n">
+      <c r="Y10" s="6" t="n">
         <v>0.882231438962757</v>
       </c>
-      <c r="Z10" s="5" t="n">
+      <c r="Z10" s="6" t="n">
         <v>0.45010427021702</v>
       </c>
-      <c r="AA10" s="5" t="n">
+      <c r="AA10" s="6" t="n">
         <v>0.195764115067596</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>58.69374</v>
@@ -11190,19 +11237,19 @@
       <c r="V11" s="0" t="n">
         <v>10.9906747790859</v>
       </c>
-      <c r="W11" s="5" t="n">
+      <c r="W11" s="6" t="n">
         <v>0.721554837366038</v>
       </c>
-      <c r="X11" s="5" t="n">
+      <c r="X11" s="6" t="n">
         <v>0.888653353268984</v>
       </c>
-      <c r="Y11" s="5" t="n">
+      <c r="Y11" s="6" t="n">
         <v>0.854362101613732</v>
       </c>
-      <c r="Z11" s="5" t="n">
+      <c r="Z11" s="6" t="n">
         <v>0.440613656608053</v>
       </c>
-      <c r="AA11" s="5" t="n">
+      <c r="AA11" s="6" t="n">
         <v>0.17614295660246</v>
       </c>
     </row>
@@ -11273,19 +11320,19 @@
       <c r="V12" s="0" t="n">
         <v>21.4957242252342</v>
       </c>
-      <c r="W12" s="5" t="n">
+      <c r="W12" s="6" t="n">
         <v>0.275261687440633</v>
       </c>
-      <c r="X12" s="5" t="n">
+      <c r="X12" s="6" t="n">
         <v>0.0961696774380293</v>
       </c>
-      <c r="Y12" s="5" t="n">
+      <c r="Y12" s="6" t="n">
         <v>0.441931770012291</v>
       </c>
-      <c r="Z12" s="5" t="n">
+      <c r="Z12" s="6" t="n">
         <v>0.958640603717132</v>
       </c>
-      <c r="AA12" s="5" t="n">
+      <c r="AA12" s="6" t="n">
         <v>0.0988001151692668</v>
       </c>
     </row>
@@ -11356,19 +11403,19 @@
       <c r="V13" s="0" t="n">
         <v>25.6128386539759</v>
       </c>
-      <c r="W13" s="5" t="n">
+      <c r="W13" s="6" t="n">
         <v>0.285739920250661</v>
       </c>
-      <c r="X13" s="5" t="n">
+      <c r="X13" s="6" t="n">
         <v>0.0738257635474416</v>
       </c>
-      <c r="Y13" s="5" t="n">
+      <c r="Y13" s="6" t="n">
         <v>0.327223239625762</v>
       </c>
-      <c r="Z13" s="5" t="n">
+      <c r="Z13" s="6" t="n">
         <v>0.968114149326128</v>
       </c>
-      <c r="AA13" s="5" t="n">
+      <c r="AA13" s="6" t="n">
         <v>0.0438705258638993</v>
       </c>
     </row>
@@ -11439,19 +11486,19 @@
       <c r="V14" s="0" t="n">
         <v>23.293105937084</v>
       </c>
-      <c r="W14" s="5" t="n">
+      <c r="W14" s="6" t="n">
         <v>0.319872087498876</v>
       </c>
-      <c r="X14" s="5" t="n">
+      <c r="X14" s="6" t="n">
         <v>0.1092421231047</v>
       </c>
-      <c r="Y14" s="5" t="n">
+      <c r="Y14" s="6" t="n">
         <v>0.315700017305827</v>
       </c>
-      <c r="Z14" s="5" t="n">
+      <c r="Z14" s="6" t="n">
         <v>0.922326176813802</v>
       </c>
-      <c r="AA14" s="5" t="n">
+      <c r="AA14" s="6" t="n">
         <v>0.0531268034244399</v>
       </c>
     </row>
@@ -11522,19 +11569,19 @@
       <c r="V15" s="0" t="n">
         <v>18.4034607308278</v>
       </c>
-      <c r="W15" s="5" t="n">
+      <c r="W15" s="6" t="n">
         <v>0.173990359971505</v>
       </c>
-      <c r="X15" s="5" t="n">
+      <c r="X15" s="6" t="n">
         <v>0.126627567192779</v>
       </c>
-      <c r="Y15" s="5" t="n">
+      <c r="Y15" s="6" t="n">
         <v>0.393633816854478</v>
       </c>
-      <c r="Z15" s="5" t="n">
+      <c r="Z15" s="6" t="n">
         <v>0.935698064963664</v>
       </c>
-      <c r="AA15" s="5" t="n">
+      <c r="AA15" s="6" t="n">
         <v>0.0965029340378998</v>
       </c>
     </row>
@@ -11605,19 +11652,19 @@
       <c r="V16" s="0" t="n">
         <v>19.3656280765457</v>
       </c>
-      <c r="W16" s="5" t="n">
+      <c r="W16" s="6" t="n">
         <v>0.220796225183655</v>
       </c>
-      <c r="X16" s="5" t="n">
+      <c r="X16" s="6" t="n">
         <v>0.0998258897000199</v>
       </c>
-      <c r="Y16" s="5" t="n">
+      <c r="Y16" s="6" t="n">
         <v>0.43913268860047</v>
       </c>
-      <c r="Z16" s="5" t="n">
+      <c r="Z16" s="6" t="n">
         <v>0.953737835045931</v>
       </c>
-      <c r="AA16" s="5" t="n">
+      <c r="AA16" s="6" t="n">
         <v>0.0785327591153097</v>
       </c>
     </row>
@@ -11639,8 +11686,8 @@
   </sheetPr>
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K7" activeCellId="0" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -11670,7 +11717,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.975124378109453</v>
@@ -11690,7 +11737,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.980392156862745</v>
@@ -11710,7 +11757,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.801859683682649</v>
@@ -11730,7 +11777,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.809199678055469</v>
@@ -11750,7 +11797,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.921742078750633</v>
@@ -11770,7 +11817,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.957839023503195</v>
@@ -11790,7 +11837,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.535355147646185</v>
@@ -11810,7 +11857,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.679340716895299</v>
@@ -11830,7 +11877,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.852070343489951</v>
@@ -11850,7 +11897,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.911780533365111</v>
@@ -11870,7 +11917,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.715372878421043</v>
@@ -11890,7 +11937,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.992329294553105</v>
@@ -11910,7 +11957,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.503639078908</v>
@@ -11930,7 +11977,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.644335869050331</v>
@@ -11950,7 +11997,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.91293127365429</v>
@@ -11970,7 +12017,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.908574513001235</v>
@@ -11990,7 +12037,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.970026190707149</v>
@@ -12010,7 +12057,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.710219050875862</v>
@@ -12030,7 +12077,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.970308558121483</v>
@@ -12050,7 +12097,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.930491954398859</v>
@@ -12070,7 +12117,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0.782778360007331</v>
@@ -12090,7 +12137,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0.963480268512876</v>
@@ -12110,7 +12157,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0.980990940795107</v>
@@ -12130,7 +12177,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0.980771862498377</v>
@@ -12150,7 +12197,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0.450669205719509</v>
@@ -12170,7 +12217,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0.490049076234853</v>
@@ -12190,7 +12237,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0.397990474326352</v>
@@ -12210,7 +12257,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0.390969251229791</v>
@@ -12230,7 +12277,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0.379958246346555</v>
@@ -12250,7 +12297,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0.346121538784612</v>
@@ -12270,7 +12317,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0.471709909346671</v>
@@ -12290,7 +12337,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0.530240265120133</v>
@@ -12310,7 +12357,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0.443899270677244</v>
@@ -12330,7 +12377,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0.391804750632601</v>
@@ -12350,7 +12397,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0.555555555555555</v>
@@ -12370,7 +12417,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0.335835526920115</v>
@@ -12390,7 +12437,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0.38591404068467</v>
@@ -12410,7 +12457,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>0.318181818181818</v>
@@ -12430,7 +12477,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0.502688172043011</v>
@@ -12450,7 +12497,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0.331987279598386</v>
@@ -12470,7 +12517,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>0.801925964884528</v>
@@ -12490,7 +12537,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>0.382954299983963</v>
@@ -12510,7 +12557,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>0.380487249183787</v>
@@ -12530,7 +12577,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>0.388828918809728</v>
@@ -12550,7 +12597,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>0.50141040388403</v>
@@ -12570,7 +12617,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>0.372969837424383</v>
@@ -12590,7 +12637,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>0.838513683638974</v>
@@ -12610,7 +12657,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>0.524390589118115</v>
@@ -12630,7 +12677,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>0.37294712797797</v>
@@ -12650,7 +12697,7 @@
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>0.490747085883024</v>
@@ -12670,7 +12717,7 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>0.307733110994218</v>
@@ -12690,7 +12737,7 @@
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>0.459150942153889</v>
@@ -12710,7 +12757,7 @@
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>0.789596872201821</v>
@@ -12730,7 +12777,7 @@
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>0.347252078458297</v>
@@ -12750,7 +12797,7 @@
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>0.562430872098807</v>
@@ -12770,7 +12817,7 @@
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>0.818012409242378</v>
@@ -12790,7 +12837,7 @@
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>0.658232013064598</v>
@@ -12810,7 +12857,7 @@
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>0.663982293158211</v>
@@ -12830,7 +12877,7 @@
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>0.810962799554268</v>
@@ -12850,7 +12897,7 @@
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>0.660460245912947</v>
@@ -12870,7 +12917,7 @@
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>0.830468950718769</v>
@@ -12890,7 +12937,7 @@
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>0.816593077543733</v>
@@ -12910,7 +12957,7 @@
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B64" s="0" t="n">
         <v>0.7717562325596</v>
@@ -12930,7 +12977,7 @@
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>0.67912761842387</v>
@@ -12950,7 +12997,7 @@
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B66" s="0" t="n">
         <v>0.779743256982732</v>
@@ -12970,7 +13017,7 @@
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B67" s="0" t="n">
         <v>0.74623529230749</v>
@@ -12990,7 +13037,7 @@
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>0.721554837366038</v>
@@ -13010,7 +13057,7 @@
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B69" s="0" t="n">
         <v>0.275261687440633</v>
@@ -13030,7 +13077,7 @@
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B70" s="0" t="n">
         <v>0.285739920250661</v>
@@ -13050,7 +13097,7 @@
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B71" s="0" t="n">
         <v>0.319872087498876</v>
@@ -13070,7 +13117,7 @@
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B72" s="0" t="n">
         <v>0.173990359971505</v>
@@ -13090,7 +13137,7 @@
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B73" s="0" t="n">
         <v>0.220796225183655</v>

--- a/HistRatios.xlsx
+++ b/HistRatios.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="306" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="306" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="pp" sheetId="1" state="visible" r:id="rId2"/>
@@ -199,10 +199,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.00"/>
+    <numFmt numFmtId="167" formatCode="0.000000"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -283,7 +284,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -309,6 +310,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5183,7 +5188,7 @@
   </sheetPr>
   <dimension ref="A1:AA58"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -11686,11 +11691,11 @@
   </sheetPr>
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K7" activeCellId="0" sqref="K7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.1417004048583"/>
   </cols>
@@ -11732,7 +11737,7 @@
         <v>0.372522894626753</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>0.146799429743044</v>
+        <v>0.853200570256956</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11751,8 +11756,8 @@
       <c r="E3" s="0" t="n">
         <v>0.184108723882591</v>
       </c>
-      <c r="F3" s="0" t="n">
-        <v>0.13</v>
+      <c r="F3" s="7" t="n">
+        <v>0.87</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11772,7 +11777,7 @@
         <v>0.2080207218226</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>0.19644241541943</v>
+        <v>0.80355758458057</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11792,7 +11797,7 @@
         <v>0.38934960522631</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>0.139778377499076</v>
+        <v>0.860221622500924</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11812,7 +11817,7 @@
         <v>0.382827884699651</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>0.141591569214423</v>
+        <v>0.858408430785577</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11832,7 +11837,7 @@
         <v>0.399223806936338</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>0.161560746270527</v>
+        <v>0.838439253729473</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11852,7 +11857,7 @@
         <v>0.351096978435776</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>0.164777237133756</v>
+        <v>0.835222762866244</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11872,7 +11877,7 @@
         <v>0.322465636387876</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>0.120119874659063</v>
+        <v>0.879880125340937</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11892,7 +11897,7 @@
         <v>0.53301938457848</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>0.194084128817123</v>
+        <v>0.805915871182877</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11912,7 +11917,7 @@
         <v>0.378859029254379</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>0.102828370542711</v>
+        <v>0.897171629457289</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11932,7 +11937,7 @@
         <v>0.40112514355766</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>0.251079566344999</v>
+        <v>0.748920433655001</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11952,7 +11957,7 @@
         <v>0.375394201366288</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>0.184476124542524</v>
+        <v>0.815523875457476</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11972,7 +11977,7 @@
         <v>0.638954987186226</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>0.137818086914743</v>
+        <v>0.862181913085257</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11992,7 +11997,7 @@
         <v>0.575617416131335</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>0.0954803264969858</v>
+        <v>0.904519673503014</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12012,7 +12017,7 @@
         <v>0.601722490129149</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>0.107742822235797</v>
+        <v>0.892257177764203</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12032,7 +12037,7 @@
         <v>0.356429353510263</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>0.130570927640171</v>
+        <v>0.869429072359829</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12052,7 +12057,7 @@
         <v>0.177519600390078</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>0.154682452394081</v>
+        <v>0.845317547605919</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12072,7 +12077,7 @@
         <v>0.474354894147589</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>0.105969431921075</v>
+        <v>0.894030568078925</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12092,7 +12097,7 @@
         <v>0.149430794154377</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>0.133918707352373</v>
+        <v>0.866081292647627</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12112,7 +12117,7 @@
         <v>0.442969640791297</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>0.101614960874043</v>
+        <v>0.898385039125957</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12132,7 +12137,7 @@
         <v>0.426606203958019</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>0.116852697592075</v>
+        <v>0.883147302407925</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12152,7 +12157,7 @@
         <v>0.0736169678784646</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>0.151154366976743</v>
+        <v>0.848845633023257</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12172,7 +12177,7 @@
         <v>0.384910431096598</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>0.15096193287711</v>
+        <v>0.84903806712289</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12192,7 +12197,7 @@
         <v>0.0851206323557889</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>0.136490911404911</v>
+        <v>0.863509088595089</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12212,7 +12217,7 @@
         <v>0.881656804733728</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>0.0462155634696467</v>
+        <v>0.953784436530353</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12232,7 +12237,7 @@
         <v>0.936864688633021</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>0.111227374240602</v>
+        <v>0.888772625759398</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12252,7 +12257,7 @@
         <v>0.97825975095194</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>0.0470278014577331</v>
+        <v>0.952972198542267</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12272,7 +12277,7 @@
         <v>0.99239597895093</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>0.0761872008790884</v>
+        <v>0.923812799120912</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12292,7 +12297,7 @@
         <v>0.938736922168785</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>0.0426971276477764</v>
+        <v>0.957302872352224</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12312,7 +12317,7 @@
         <v>0.938088859627216</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>0.040674550564777</v>
+        <v>0.959325449435223</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12332,7 +12337,7 @@
         <v>0.956363636363636</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>0.00857031554343592</v>
+        <v>0.991429684456564</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12352,7 +12357,7 @@
         <v>0.982881023110619</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>0.00778766687857597</v>
+        <v>0.992212333121424</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12372,7 +12377,7 @@
         <v>0.866283314193847</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>0.00932642269517978</v>
+        <v>0.99067357730482</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12392,7 +12397,7 @@
         <v>1</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>0.134409137474398</v>
+        <v>0.865590862525602</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12412,7 +12417,7 @@
         <v>0.947446753410216</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>0.00629626417867256</v>
+        <v>0.993703735821327</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12432,7 +12437,7 @@
         <v>0.944446463311737</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>0.053</v>
+        <v>0.947</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12452,7 +12457,7 @@
         <v>0.971594541714895</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>0.00177087663319953</v>
+        <v>0.9982291233668</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12472,7 +12477,7 @@
         <v>0.940460956077671</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>0.108776474371608</v>
+        <v>0.891223525628392</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12492,7 +12497,7 @@
         <v>0.998061665096232</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>0.0743100475278483</v>
+        <v>0.925689952472152</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12512,7 +12517,7 @@
         <v>0.854491011366409</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>0.056</v>
+        <v>0.944</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12532,7 +12537,7 @@
         <v>0.56030386884196</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>0.065841298068045</v>
+        <v>0.934158701931955</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12552,7 +12557,7 @@
         <v>0.942685910177328</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>0.0120013724494966</v>
+        <v>0.987998627550503</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12572,7 +12577,7 @@
         <v>0.876308873076071</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>0.0283978936645115</v>
+        <v>0.971602106335488</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12592,7 +12597,7 @@
         <v>0.391859015583592</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>0.0186793997228127</v>
+        <v>0.981320600277187</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12612,7 +12617,7 @@
         <v>0.495066376067028</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>0.160444853214013</v>
+        <v>0.839555146785987</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12632,7 +12637,7 @@
         <v>0.72117133745651</v>
       </c>
       <c r="F47" s="0" t="n">
-        <v>0.0256944543517991</v>
+        <v>0.974305545648201</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12652,7 +12657,7 @@
         <v>0.594205900463195</v>
       </c>
       <c r="F48" s="0" t="n">
-        <v>0.0063497826494831</v>
+        <v>0.993650217350517</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12672,7 +12677,7 @@
         <v>0.938919093027415</v>
       </c>
       <c r="F49" s="0" t="n">
-        <v>0.0457119452848037</v>
+        <v>0.954288054715196</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12692,7 +12697,7 @@
         <v>0.808262128799209</v>
       </c>
       <c r="F50" s="0" t="n">
-        <v>0.0213576439986038</v>
+        <v>0.978642356001396</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12712,7 +12717,7 @@
         <v>0.838</v>
       </c>
       <c r="F51" s="0" t="n">
-        <v>0.00255721808027134</v>
+        <v>0.997442781919729</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12732,7 +12737,7 @@
         <v>0.856850638233491</v>
       </c>
       <c r="F52" s="0" t="n">
-        <v>0.0284171365282478</v>
+        <v>0.971582863471752</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12752,7 +12757,7 @@
         <v>0.930389325919046</v>
       </c>
       <c r="F53" s="0" t="n">
-        <v>0.0404534054624786</v>
+        <v>0.959546594537521</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12772,7 +12777,7 @@
         <v>0.826401202628249</v>
       </c>
       <c r="F54" s="0" t="n">
-        <v>0.0152501336447574</v>
+        <v>0.984749866355243</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12792,7 +12797,7 @@
         <v>0.838</v>
       </c>
       <c r="F55" s="0" t="n">
-        <v>0.0102944956241925</v>
+        <v>0.989705504375807</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12812,7 +12817,7 @@
         <v>0.533179675064192</v>
       </c>
       <c r="F56" s="0" t="n">
-        <v>0.0860588554517668</v>
+        <v>0.913941144548233</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12832,7 +12837,7 @@
         <v>0.681071479043912</v>
       </c>
       <c r="F57" s="0" t="n">
-        <v>0.100635506736888</v>
+        <v>0.899364493263112</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12852,7 +12857,7 @@
         <v>0.706162204230235</v>
       </c>
       <c r="F58" s="0" t="n">
-        <v>0.0368799734570507</v>
+        <v>0.963120026542949</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12872,7 +12877,7 @@
         <v>0.406353173983328</v>
       </c>
       <c r="F59" s="0" t="n">
-        <v>0.17451726521623</v>
+        <v>0.82548273478377</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12892,7 +12897,7 @@
         <v>0.37747688050659</v>
       </c>
       <c r="F60" s="0" t="n">
-        <v>0.34329638501238</v>
+        <v>0.65670361498762</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12912,7 +12917,7 @@
         <v>0.284545189442954</v>
       </c>
       <c r="F61" s="0" t="n">
-        <v>0.164508839807129</v>
+        <v>0.835491160192871</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12932,7 +12937,7 @@
         <v>0.36244406258906</v>
       </c>
       <c r="F62" s="0" t="n">
-        <v>0.205417965211752</v>
+        <v>0.794582034788248</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12952,7 +12957,7 @@
         <v>0.345151868760795</v>
       </c>
       <c r="F63" s="0" t="n">
-        <v>0.354203825906295</v>
+        <v>0.645796174093705</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12972,7 +12977,7 @@
         <v>0.28966054791458</v>
       </c>
       <c r="F64" s="0" t="n">
-        <v>0.447389702578848</v>
+        <v>0.552610297421152</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12992,7 +12997,7 @@
         <v>0.475635798874005</v>
       </c>
       <c r="F65" s="0" t="n">
-        <v>0.300797927192386</v>
+        <v>0.699202072807614</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13012,7 +13017,7 @@
         <v>0.38967270767056</v>
       </c>
       <c r="F66" s="0" t="n">
-        <v>0.123161105741565</v>
+        <v>0.876838894258435</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13032,7 +13037,7 @@
         <v>0.45010427021702</v>
       </c>
       <c r="F67" s="0" t="n">
-        <v>0.195764115067596</v>
+        <v>0.804235884932404</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13052,7 +13057,7 @@
         <v>0.440613656608053</v>
       </c>
       <c r="F68" s="0" t="n">
-        <v>0.17614295660246</v>
+        <v>0.82385704339754</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13072,7 +13077,7 @@
         <v>0.958640603717132</v>
       </c>
       <c r="F69" s="0" t="n">
-        <v>0.0988001151692668</v>
+        <v>0.901199884830733</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13092,7 +13097,7 @@
         <v>0.968114149326128</v>
       </c>
       <c r="F70" s="0" t="n">
-        <v>0.0438705258638993</v>
+        <v>0.956129474136101</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13112,7 +13117,7 @@
         <v>0.922326176813802</v>
       </c>
       <c r="F71" s="0" t="n">
-        <v>0.0531268034244399</v>
+        <v>0.94687319657556</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13132,7 +13137,7 @@
         <v>0.935698064963664</v>
       </c>
       <c r="F72" s="0" t="n">
-        <v>0.0965029340378998</v>
+        <v>0.9034970659621</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13152,7 +13157,7 @@
         <v>0.953737835045931</v>
       </c>
       <c r="F73" s="0" t="n">
-        <v>0.0785327591153097</v>
+        <v>0.92146724088469</v>
       </c>
     </row>
   </sheetData>
